--- a/수강신청.xlsx
+++ b/수강신청.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050031\Documents\workspace\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F5DDA-D53E-4F6A-A0D1-1FB56E6DC169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BAB713-4097-44B8-BC53-BCEE94B0AC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09037188-78E4-4C9E-9BC8-111B5E0A1FB0}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{09037188-78E4-4C9E-9BC8-111B5E0A1FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,43 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
-  <si>
-    <t>수강신청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강과목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당교수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강의실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,58 +35,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정보처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터베이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이기동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>505실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자바 프로그래밍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>남가람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>506실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HTML홈페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김씨네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성춘향</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터공학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>숫자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,18 +71,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>과목코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S002</t>
-  </si>
-  <si>
-    <t>S003</t>
+    <t>도서관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변희선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -521,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59B9E49-F9F5-4FC6-B3E5-45658A54F007}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:I9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,197 +502,131 @@
     <col min="8" max="8" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
       <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
       <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
